--- a/Template/Шаблон для загрузки распоряжений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки распоряжений в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ImportUtil\Core\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,9 @@
     <sheet name="Распоряжения" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Распоряжения!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Распоряжения!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -39,7 +39,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Номер ведущего документа</t>
+          <t>Номер документа</t>
         </r>
       </text>
     </comment>
@@ -53,7 +53,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Дата ведущего документа</t>
+          <t>Дата документа</t>
         </r>
       </text>
     </comment>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Содержание</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Примечание</t>
   </si>
   <si>
-    <t>Вид документа</t>
-  </si>
-  <si>
     <t>Файл</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Рег. №</t>
   </si>
   <si>
-    <t>Рег. Дата</t>
-  </si>
-  <si>
     <t>Наша организация</t>
   </si>
   <si>
@@ -222,12 +216,15 @@
   </si>
   <si>
     <t>Журнал регистрации</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -326,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -382,6 +379,34 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,83 +756,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="23.42578125" customWidth="1"/>
+    <col min="1" max="14" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+    <row r="2" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="K2" s="26"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -821,8 +852,9 @@
       <c r="K3" s="8"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
+      <c r="N3" s="27"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -836,9 +868,10 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
+      <c r="N4" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1"/>
+  <autoFilter ref="A1:Q1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
